--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_344__Reeval_Halton_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_344__Reeval_Halton_Modell_1.3.xlsx
@@ -5990,13 +5990,13 @@
                   <c:v>13.00481796264648</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.56597137451172</c:v>
+                  <c:v>78.56596374511719</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>63.05191040039062</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.63101959228516</c:v>
+                  <c:v>74.63101196289062</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44.74713897705078</c:v>
@@ -6008,16 +6008,16 @@
                   <c:v>56.06114959716797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.60031127929688</c:v>
+                  <c:v>62.60030364990234</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>64.20457458496094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.84237670898438</c:v>
+                  <c:v>42.84236907958984</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.58048629760742</c:v>
+                  <c:v>36.58049011230469</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>74.17696380615234</c:v>
@@ -6047,7 +6047,7 @@
                   <c:v>77.10546875</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>71.38633728027344</c:v>
+                  <c:v>71.38634490966797</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>81.29502105712891</c:v>
@@ -6077,7 +6077,7 @@
                   <c:v>69.85812377929688</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>92.19324493408203</c:v>
+                  <c:v>92.19325256347656</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>72.30400085449219</c:v>
@@ -6092,10 +6092,10 @@
                   <c:v>66.52558898925781</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>80.25474548339844</c:v>
+                  <c:v>80.25475311279297</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>81.82698822021484</c:v>
+                  <c:v>81.82697296142578</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>56.8988037109375</c:v>
@@ -6116,7 +6116,7 @@
                   <c:v>58.7633056640625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>89.95417022705078</c:v>
+                  <c:v>89.95416259765625</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>70.44414520263672</c:v>
@@ -6134,16 +6134,16 @@
                   <c:v>75.73800659179688</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>24.39473152160645</c:v>
+                  <c:v>24.39473724365234</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>79.19083404541016</c:v>
+                  <c:v>79.19084167480469</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>76.91815185546875</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51.61936187744141</c:v>
+                  <c:v>51.61936950683594</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>86.25655364990234</c:v>
@@ -6164,22 +6164,22 @@
                   <c:v>71.02980804443359</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>94.68260192871094</c:v>
+                  <c:v>94.68258666992188</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>74.55469512939453</c:v>
+                  <c:v>74.5546875</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>87.48959350585938</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>100.1821060180664</c:v>
+                  <c:v>100.1820907592773</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>56.56609344482422</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>74.87180328369141</c:v>
+                  <c:v>74.87179565429688</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>77.20613861083984</c:v>
@@ -6209,16 +6209,16 @@
                   <c:v>40.22557830810547</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74.46793365478516</c:v>
+                  <c:v>74.46792602539062</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>61.83602905273438</c:v>
+                  <c:v>61.83603668212891</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>94.29561614990234</c:v>
+                  <c:v>94.29563140869141</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>41.52687835693359</c:v>
+                  <c:v>41.52687072753906</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>73.37495422363281</c:v>
@@ -6233,7 +6233,7 @@
                   <c:v>14.21189785003662</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>73.95896148681641</c:v>
+                  <c:v>73.95895385742188</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>58.25028991699219</c:v>
@@ -6263,7 +6263,7 @@
                   <c:v>81.37220001220703</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43.30488586425781</c:v>
+                  <c:v>43.30488204956055</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>86.92051696777344</c:v>
@@ -7011,7 +7011,7 @@
         <v>86.01000000000001</v>
       </c>
       <c r="F3">
-        <v>78.56597137451172</v>
+        <v>78.56596374511719</v>
       </c>
       <c r="G3">
         <v>105</v>
@@ -7075,7 +7075,7 @@
         <v>74.8476</v>
       </c>
       <c r="F5">
-        <v>74.63101959228516</v>
+        <v>74.63101196289062</v>
       </c>
       <c r="G5">
         <v>105</v>
@@ -7191,7 +7191,7 @@
         <v>40.1812</v>
       </c>
       <c r="F9">
-        <v>62.60031127929688</v>
+        <v>62.60030364990234</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>40.3697</v>
       </c>
       <c r="F11">
-        <v>42.84237670898438</v>
+        <v>42.84236907958984</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>32.0985</v>
       </c>
       <c r="F12">
-        <v>36.58048629760742</v>
+        <v>36.58049011230469</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>75.0883</v>
       </c>
       <c r="F22">
-        <v>71.38633728027344</v>
+        <v>71.38634490966797</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>95.22920000000001</v>
       </c>
       <c r="F32">
-        <v>92.19324493408203</v>
+        <v>92.19325256347656</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>79.1952</v>
       </c>
       <c r="F37">
-        <v>80.25474548339844</v>
+        <v>80.25475311279297</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>89.0134</v>
       </c>
       <c r="F38">
-        <v>81.82698822021484</v>
+        <v>81.82697296142578</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>84.85599999999999</v>
       </c>
       <c r="F45">
-        <v>89.95417022705078</v>
+        <v>89.95416259765625</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>32.7716</v>
       </c>
       <c r="F51">
-        <v>24.39473152160645</v>
+        <v>24.39473724365234</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>79.5063</v>
       </c>
       <c r="F52">
-        <v>79.19083404541016</v>
+        <v>79.19084167480469</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>42.721</v>
       </c>
       <c r="F54">
-        <v>51.61936187744141</v>
+        <v>51.61936950683594</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>96.3043</v>
       </c>
       <c r="F61">
-        <v>94.68260192871094</v>
+        <v>94.68258666992188</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>69.6538</v>
       </c>
       <c r="F62">
-        <v>74.55469512939453</v>
+        <v>74.5546875</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>95.8982</v>
       </c>
       <c r="F64">
-        <v>100.1821060180664</v>
+        <v>100.1820907592773</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>76.07389999999999</v>
       </c>
       <c r="F66">
-        <v>74.87180328369141</v>
+        <v>74.87179565429688</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>75.1593</v>
       </c>
       <c r="F76">
-        <v>74.46793365478516</v>
+        <v>74.46792602539062</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>63.1616</v>
       </c>
       <c r="F77">
-        <v>61.83602905273438</v>
+        <v>61.83603668212891</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>95.4156</v>
       </c>
       <c r="F78">
-        <v>94.29561614990234</v>
+        <v>94.29563140869141</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>40.3913</v>
       </c>
       <c r="F79">
-        <v>41.52687835693359</v>
+        <v>41.52687072753906</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>68.94370000000001</v>
       </c>
       <c r="F84">
-        <v>73.95896148681641</v>
+        <v>73.95895385742188</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>45.8769</v>
       </c>
       <c r="F94">
-        <v>43.30488586425781</v>
+        <v>43.30488204956055</v>
       </c>
     </row>
     <row r="95" spans="1:6">
